--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2187597.533447953</v>
+        <v>-2191163.035321502</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14589070.09312076</v>
+        <v>14585530.21677824</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>50.27744239961095</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>335.2122228055243</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>108.4193899367865</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968111</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>128.5631274482085</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>86.80189607361297</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>116.8023263015178</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -959,7 +959,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>28.40970890566381</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226486</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968111</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>73.1712905541235</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>184.690628166783</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1181,25 +1181,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>340.1196995098082</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>326.3423168894466</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>114.4687686946099</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>28.3369300140971</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.56377133465798</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>26.32608977062853</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>9.504780395469167</v>
       </c>
       <c r="E13" t="n">
-        <v>71.34086169719426</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>291.8622730931779</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
@@ -1625,7 +1625,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>171.1899637792191</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
         <v>97.42475435993872</v>
@@ -1771,19 +1771,19 @@
         <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>110.9338473131712</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>141.7184499317734</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
@@ -1850,7 +1850,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
         <v>236.929075365811</v>
@@ -1910,7 +1910,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
         <v>132.9595824117996</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
@@ -2087,7 +2087,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
@@ -2099,7 +2099,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059396</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2147,7 +2147,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117996</v>
@@ -2305,7 +2305,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
@@ -2324,7 +2324,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
@@ -2336,7 +2336,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2384,7 +2384,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117996</v>
@@ -2542,7 +2542,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838888</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828901</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431733</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459974</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643946</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931857</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908584</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147798</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805002</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922195</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367787</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920519</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2174.782969737749</v>
+        <v>1736.564132962857</v>
       </c>
       <c r="C2" t="n">
-        <v>2123.997674384606</v>
+        <v>1736.564132962857</v>
       </c>
       <c r="D2" t="n">
-        <v>1738.556545601274</v>
+        <v>1736.564132962857</v>
       </c>
       <c r="E2" t="n">
-        <v>1335.973020717819</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477964</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357995</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475497</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>175.3530084793366</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>668.6733001978654</v>
+        <v>588.4870060424354</v>
       </c>
       <c r="M2" t="n">
-        <v>1206.932085207958</v>
+        <v>1102.089684652124</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.74336884542</v>
+        <v>1102.089684652124</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737749</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737749</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="X2" t="n">
-        <v>2174.782969737749</v>
+        <v>1736.564132962857</v>
       </c>
       <c r="Y2" t="n">
-        <v>2174.782969737749</v>
+        <v>1736.564132962857</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813175</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414097</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.44958816289</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>165.9350528732066</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475497</v>
+        <v>50.78821608954462</v>
       </c>
       <c r="L3" t="n">
-        <v>527.0617452930683</v>
+        <v>534.3543019878579</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.320530303161</v>
+        <v>1047.956980597546</v>
       </c>
       <c r="N3" t="n">
-        <v>1603.579315313254</v>
+        <v>1561.559659207234</v>
       </c>
       <c r="O3" t="n">
-        <v>2120.099597904235</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737749</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737749</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467715</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222788</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>612.2648532216764</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>326.8260614635773</v>
+        <v>855.2715863952516</v>
       </c>
       <c r="V4" t="n">
-        <v>326.8260614635773</v>
+        <v>589.2922412160758</v>
       </c>
       <c r="W4" t="n">
-        <v>43.49565939475497</v>
+        <v>305.9618391472534</v>
       </c>
       <c r="X4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.8815169302365</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>774.9962245128075</v>
+        <v>319.7988973443955</v>
       </c>
       <c r="C5" t="n">
-        <v>774.9962245128075</v>
+        <v>319.7988973443955</v>
       </c>
       <c r="D5" t="n">
-        <v>389.5550957294753</v>
+        <v>319.7988973443955</v>
       </c>
       <c r="E5" t="n">
-        <v>389.5550957294753</v>
+        <v>319.7988973443955</v>
       </c>
       <c r="F5" t="n">
-        <v>376.7010612998571</v>
+        <v>306.9448629147773</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>297.8225114431845</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>1434.057092150838</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="N5" t="n">
-        <v>1434.057092150838</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465278</v>
+        <v>1847.448174004346</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.9374095968</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023271</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023271</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="T5" t="n">
-        <v>1913.289453582687</v>
+        <v>1685.14818031739</v>
       </c>
       <c r="U5" t="n">
-        <v>1913.289453582687</v>
+        <v>1429.395450751988</v>
       </c>
       <c r="V5" t="n">
-        <v>1571.182644286206</v>
+        <v>1087.288641455507</v>
       </c>
       <c r="W5" t="n">
-        <v>1200.183609254493</v>
+        <v>716.2896064237943</v>
       </c>
       <c r="X5" t="n">
-        <v>1171.486933592206</v>
+        <v>716.2896064237943</v>
       </c>
       <c r="Y5" t="n">
-        <v>774.9962245128075</v>
+        <v>319.7988973443955</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813175</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414097</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>275.44958816289</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737777</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475497</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475497</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>527.0617452930683</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1018.27622687548</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.27622687548</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466461</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737749</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737749</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467715</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222788</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.333890426251</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="C7" t="n">
-        <v>199.1287724922402</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475497</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475497</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475497</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475497</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>871.0322874371927</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>635.3132356054268</v>
+        <v>756.3940792304334</v>
       </c>
       <c r="U7" t="n">
-        <v>635.3132356054268</v>
+        <v>470.9552874723344</v>
       </c>
       <c r="V7" t="n">
-        <v>369.333890426251</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="W7" t="n">
-        <v>369.333890426251</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="X7" t="n">
-        <v>369.333890426251</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.333890426251</v>
+        <v>204.9759422931586</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1338.333452267659</v>
+        <v>610.2099977937452</v>
       </c>
       <c r="C8" t="n">
-        <v>1338.333452267659</v>
+        <v>610.2099977937452</v>
       </c>
       <c r="D8" t="n">
-        <v>1338.333452267659</v>
+        <v>610.2099977937452</v>
       </c>
       <c r="E8" t="n">
-        <v>935.7499273842031</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4802,13 +4802,13 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="M8" t="n">
         <v>864.7645682749193</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="V8" t="n">
-        <v>1681.888704297768</v>
+        <v>1729.796052500819</v>
       </c>
       <c r="W8" t="n">
-        <v>1681.888704297768</v>
+        <v>1729.796052500819</v>
       </c>
       <c r="X8" t="n">
-        <v>1338.333452267659</v>
+        <v>1340.343447433876</v>
       </c>
       <c r="Y8" t="n">
-        <v>1338.333452267659</v>
+        <v>1010.704743505142</v>
       </c>
     </row>
     <row r="9">
@@ -4887,7 +4887,7 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="M9" t="n">
         <v>1209.141762214911</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>318.416540023494</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C10" t="n">
-        <v>318.416540023494</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>318.416540023494</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>318.416540023494</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>318.416540023494</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>318.416540023494</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>162.937988984988</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>824.8590032756731</v>
+        <v>920.136831012695</v>
       </c>
       <c r="V10" t="n">
-        <v>824.8590032756731</v>
+        <v>920.136831012695</v>
       </c>
       <c r="W10" t="n">
-        <v>541.5286012068507</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="X10" t="n">
-        <v>541.5286012068507</v>
+        <v>402.7261067268557</v>
       </c>
       <c r="Y10" t="n">
-        <v>318.416540023494</v>
+        <v>402.7261067268557</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1435.837779556535</v>
+        <v>1714.395101119023</v>
       </c>
       <c r="C11" t="n">
-        <v>1114.45855320566</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D11" t="n">
-        <v>800.8136995685213</v>
+        <v>1079.371021131009</v>
       </c>
       <c r="E11" t="n">
-        <v>470.02644983126</v>
+        <v>748.5837713937469</v>
       </c>
       <c r="F11" t="n">
-        <v>470.02644983126</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="G11" t="n">
-        <v>128.659969465457</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3041.750555574808</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2890.046228280419</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2706.089773861211</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="V11" t="n">
-        <v>2706.089773861211</v>
+        <v>2984.647095423699</v>
       </c>
       <c r="W11" t="n">
-        <v>2406.887013975693</v>
+        <v>2685.44433553818</v>
       </c>
       <c r="X11" t="n">
-        <v>2089.230684054943</v>
+        <v>2367.788005617431</v>
       </c>
       <c r="Y11" t="n">
-        <v>1764.536250121738</v>
+        <v>2043.093571684226</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>346.9752758473783</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>830.5413617456916</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>399.8503184534339</v>
+        <v>316.9565686277456</v>
       </c>
       <c r="C13" t="n">
-        <v>399.8503184534339</v>
+        <v>218.5477258399287</v>
       </c>
       <c r="D13" t="n">
-        <v>399.8503184534339</v>
+        <v>208.946937561677</v>
       </c>
       <c r="E13" t="n">
-        <v>327.7888419916214</v>
+        <v>208.946937561677</v>
       </c>
       <c r="F13" t="n">
-        <v>242.2591823507883</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814507</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128935</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.16734851703</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="V13" t="n">
-        <v>924.9842784840481</v>
+        <v>955.5022722034674</v>
       </c>
       <c r="W13" t="n">
-        <v>713.4501515614196</v>
+        <v>743.9681452808389</v>
       </c>
       <c r="X13" t="n">
-        <v>551.1661044905967</v>
+        <v>581.6840982100159</v>
       </c>
       <c r="Y13" t="n">
-        <v>399.8503184534339</v>
+        <v>430.368312172853</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2033.222718167679</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816804</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U14" t="n">
-        <v>2686.615622666087</v>
+        <v>2827.282650873813</v>
       </c>
       <c r="V14" t="n">
-        <v>2686.615622666087</v>
+        <v>2556.972116723525</v>
       </c>
       <c r="W14" t="n">
-        <v>2686.615622666087</v>
+        <v>2257.769356838006</v>
       </c>
       <c r="X14" t="n">
-        <v>2686.615622666087</v>
+        <v>1940.113026917258</v>
       </c>
       <c r="Y14" t="n">
-        <v>2361.921188732882</v>
+        <v>1940.113026917258</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>803.0057595505241</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.783730761083</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1975.304013352064</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>593.7970597253334</v>
+        <v>305.662958659952</v>
       </c>
       <c r="C16" t="n">
-        <v>495.3882169375165</v>
+        <v>207.2541158721351</v>
       </c>
       <c r="D16" t="n">
-        <v>411.5513789862251</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="E16" t="n">
-        <v>327.7888419916216</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="F16" t="n">
-        <v>242.2591823507884</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964276</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5461,25 +5461,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1332.573536367853</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1118.931019755948</v>
+        <v>936.0428256245444</v>
       </c>
       <c r="V16" t="n">
-        <v>1118.931019755948</v>
+        <v>792.8928761985109</v>
       </c>
       <c r="W16" t="n">
-        <v>907.396892833319</v>
+        <v>581.3587492758824</v>
       </c>
       <c r="X16" t="n">
-        <v>745.1128457624961</v>
+        <v>419.0747022050593</v>
       </c>
       <c r="Y16" t="n">
-        <v>593.7970597253334</v>
+        <v>419.0747022050593</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975446</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803427</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924184</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
@@ -5543,19 +5543,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5589,28 +5589,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2345.75511703065</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797591</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214671</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1098.796330498591</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
         <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5780,7 +5780,7 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
         <v>2855.219708188067</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>62.11912770411552</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411552</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411552</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K22" t="n">
-        <v>278.5901810446688</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184686</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567326</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879418</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296498</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,61 +5963,61 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411552</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J23" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129431</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404048</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358933</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403514</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040976</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064826</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071059</v>
       </c>
       <c r="U23" t="n">
         <v>2855.219708188067</v>
@@ -6051,10 +6051,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G24" t="n">
         <v>199.803798091603</v>
@@ -6063,13 +6063,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411552</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J24" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L24" t="n">
         <v>978.5393418843826</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072664</v>
       </c>
       <c r="H25" t="n">
         <v>63.53681638462911</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="K25" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>308.0818086878571</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214671</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6209,19 +6209,19 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218609</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6230,28 +6230,28 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
         <v>3468.110152452356</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,16 +6312,16 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1875.180111332205</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6361,37 +6361,37 @@
         <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6464,22 +6464,22 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>700.0178648958355</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824607</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>556.9309448458635</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1184.702594472545</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
-        <v>1840.480565683104</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>2357.000848274085</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108111</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1144.804556852008</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786169</v>
+        <v>1690.805456896589</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150702</v>
+        <v>2218.616740534051</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.3081217701</v>
+        <v>2658.656341426379</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901622</v>
+        <v>3006.843833557901</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042571</v>
+        <v>3303.341514273832</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076163</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076163</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>553.1136341390749</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>1180.885283765756</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="N33" t="n">
-        <v>1836.663254976315</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>2353.183537567296</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918665</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431915</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>225.4160927170971</v>
       </c>
       <c r="L34" t="n">
-        <v>315.5102292245033</v>
+        <v>501.1958531658797</v>
       </c>
       <c r="M34" t="n">
-        <v>607.0749002898376</v>
+        <v>799.1395520791266</v>
       </c>
       <c r="N34" t="n">
-        <v>895.537627048117</v>
+        <v>1093.981306685319</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145873</v>
+        <v>1256.686073727027</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649522</v>
+        <v>1376.562239503605</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395517</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,7 +6959,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
         <v>3071.119566829236</v>
@@ -6977,7 +6977,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,22 +7014,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>346.0196676966397</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>973.7913173233209</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7087,7 +7087,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7102,16 +7102,16 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343048</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>683.142663665514</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072221</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7151,19 +7151,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7330,22 +7330,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7494,16 +7494,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>862.5399502876207</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1490.311599914302</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>2146.089571124861</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,46 +7573,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,7 +7670,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
         <v>3071.119566829236</v>
@@ -7731,16 +7731,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>973.7913173233209</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7804,22 +7804,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>278.5901810446702</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.71782091847</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.009399256734</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879432</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>845.8474307072227</v>
       </c>
       <c r="P46" t="n">
         <v>1094.77996610623</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>276.2476446788147</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>197.0376953363574</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,22 +8058,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>98.97569223556181</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837491</v>
+        <v>611.1777065035425</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886038</v>
+        <v>604.1626973083972</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431195</v>
       </c>
       <c r="P3" t="n">
-        <v>142.3190939440765</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8222,16 +8222,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O5" t="n">
-        <v>359.3545700649451</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>193.6030671112566</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8292,22 +8292,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>588.5633660719496</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>574.760706978817</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8459,7 +8459,7 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>466.7144144634705</v>
+        <v>612.8252961895594</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8535,10 +8535,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>234.9862648617782</v>
       </c>
       <c r="M9" t="n">
-        <v>340.274574506989</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>85.37211285416666</v>
@@ -8769,7 +8769,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>263.0728605086217</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,13 +8778,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9006,22 +9006,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>259.5940292362812</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>126.0381992661173</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9480,25 +9480,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>301.8549375253375</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9960,19 +9960,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>345.597757882153</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118434</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>122.1334109295184</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,25 +10662,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>376.828569071589</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -11142,19 +11142,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>461.3398360504045</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11379,19 +11379,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>576.0417294606771</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>30.20633577897004</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>241.2813390381563</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>73.49368917630932</v>
       </c>
       <c r="E13" t="n">
-        <v>11.58404992746341</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>33.54921276637302</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>10.92692609579636</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>51.34970160554509</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>50.52278940087862</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-2.688691965331183e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1273443.802615059</v>
+        <v>1271639.159773778</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1273443.802615059</v>
+        <v>1271639.159773778</v>
       </c>
     </row>
     <row r="4">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54099.65342800704</v>
+        <v>54099.65342800702</v>
       </c>
       <c r="C2" t="n">
-        <v>54099.65342800703</v>
+        <v>54099.65342800705</v>
       </c>
       <c r="D2" t="n">
         <v>54099.65342800703</v>
       </c>
       <c r="E2" t="n">
-        <v>47807.70702732012</v>
+        <v>47807.70702732013</v>
       </c>
       <c r="F2" t="n">
-        <v>47807.70702732012</v>
+        <v>47807.70702732013</v>
       </c>
       <c r="G2" t="n">
         <v>54099.65342800701</v>
       </c>
       <c r="H2" t="n">
-        <v>54099.65342800689</v>
+        <v>54099.65342800701</v>
       </c>
       <c r="I2" t="n">
-        <v>54099.65342800702</v>
+        <v>54099.65342800701</v>
       </c>
       <c r="J2" t="n">
-        <v>54099.65342800701</v>
+        <v>54099.65342800703</v>
       </c>
       <c r="K2" t="n">
         <v>54099.65342800703</v>
       </c>
       <c r="L2" t="n">
-        <v>54099.65342800698</v>
+        <v>54099.65342800701</v>
       </c>
       <c r="M2" t="n">
-        <v>54099.65342800704</v>
+        <v>54099.65342800703</v>
       </c>
       <c r="N2" t="n">
         <v>54099.65342800704</v>
       </c>
       <c r="O2" t="n">
-        <v>54099.65342800706</v>
+        <v>54099.65342800705</v>
       </c>
       <c r="P2" t="n">
-        <v>54099.65342800707</v>
+        <v>54099.65342800705</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106219</v>
+        <v>22558.42953401347</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668199</v>
+        <v>47425.32553668196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728557</v>
+        <v>62456.24177539677</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962301</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277115</v>
+        <v>27767.69404277118</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138793</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138793</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
@@ -26439,13 +26439,13 @@
         <v>199269.1699682603</v>
       </c>
       <c r="J4" t="n">
-        <v>200019.6624326435</v>
+        <v>200019.6624326434</v>
       </c>
       <c r="K4" t="n">
         <v>200019.6624326434</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.0885321601</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,10 +26485,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551964</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-427213.908617742</v>
+        <v>-422260.9151896869</v>
       </c>
       <c r="C6" t="n">
-        <v>-245008.960325886</v>
+        <v>-248402.2581556317</v>
       </c>
       <c r="D6" t="n">
-        <v>-253329.8007114555</v>
+        <v>-261066.0899348471</v>
       </c>
       <c r="E6" t="n">
-        <v>-269011.127623243</v>
+        <v>-269220.8591699326</v>
       </c>
       <c r="F6" t="n">
-        <v>-156888.5661491986</v>
+        <v>-157098.2976958881</v>
       </c>
       <c r="G6" t="n">
-        <v>-250764.611392455</v>
+        <v>-250764.6113924549</v>
       </c>
       <c r="H6" t="n">
-        <v>-203339.2858557731</v>
+        <v>-203339.285855773</v>
       </c>
       <c r="I6" t="n">
         <v>-203339.285855773</v>
       </c>
       <c r="J6" t="n">
-        <v>-416381.2034530585</v>
+        <v>-409864.9182984853</v>
       </c>
       <c r="K6" t="n">
         <v>-209579.0542585559</v>
       </c>
       <c r="L6" t="n">
-        <v>-264761.6431931772</v>
+        <v>-268810.4804036493</v>
       </c>
       <c r="M6" t="n">
-        <v>-245540.1153153959</v>
+        <v>-246591.8103265841</v>
       </c>
       <c r="N6" t="n">
         <v>-203339.2858557729</v>
       </c>
       <c r="O6" t="n">
-        <v>-231106.979898544</v>
+        <v>-231106.9798985441</v>
       </c>
       <c r="P6" t="n">
         <v>-203339.2858557729</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,25 +26802,25 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
         <v>776.489096301444</v>
       </c>
       <c r="I4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014437</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>34.70961755346397</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660696</v>
+        <v>78.07030221924596</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551345</v>
+        <v>17.58004954287442</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773713</v>
+        <v>659.3622249971651</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407288</v>
+        <v>117.1268713042793</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,10 +27379,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>338.9663040824877</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>50.34585621074939</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26.66263604343463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938626953</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>104.7987338652397</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>195.7825077669051</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27619,7 +27619,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>204.0398936276565</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>357.1483701106099</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.66263604343466</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626953</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27792,10 +27792,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>127.6166324251526</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>48.6712331466652</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>45.43837950646548</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>66.18348509915825</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28026,10 +28026,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>17.29471241468296</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28065,7 +28065,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>254.247473826421</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28746,22 +28746,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>5.636002634528609</v>
       </c>
       <c r="N19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634527912</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28980,16 +28980,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>35.71049010668719</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>5.636002634528609</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29226,16 +29226,16 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>5.636002634527912</v>
+        <v>5.636002634528595</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N26" t="n">
-        <v>30.27223765901169</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431658</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29536,25 +29536,25 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901209</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>81.10808140893323</v>
       </c>
       <c r="M32" t="n">
-        <v>86.272911965665</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>76.79385455031328</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>94.97643844045274</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30174,19 +30174,19 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>5.636002634528836</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>5.636002634529092</v>
       </c>
       <c r="M43" t="n">
         <v>130.3599693155844</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.636002634529465</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30876,25 +30876,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5.636002634529518</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K46" t="n">
-        <v>35.71049010668865</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>133.1892414995773</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>43.78952560586567</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>9.378756902228455</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="P3" t="n">
-        <v>55.23572912476185</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34942,16 +34942,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344372</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O5" t="n">
-        <v>209.7907326408486</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>43.30161987033139</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>496.1762440226378</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>482.0731480899281</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35179,7 +35179,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>316.9893628657432</v>
+        <v>463.1002445918322</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35255,10 +35255,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>144.92591800486</v>
       </c>
       <c r="M9" t="n">
-        <v>247.8874524576771</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>173.4759251752883</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,13 +35498,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>172.5106644169666</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.05004611020335</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873206</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724861</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>216.4828246711708</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>118.3721477934972</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873206</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36522,16 +36522,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724861</v>
+        <v>126.7230387724868</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039228</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446907</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,25 +36832,25 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>392.8806780907917</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.9849246700714</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>579.4114063771442</v>
       </c>
       <c r="M32" t="n">
-        <v>637.7889726167565</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>299.4926067837691</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273765</v>
+        <v>75.16693519537668</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>35.0500461102038</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>159.4555122371233</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>300.9532312255019</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>259.3246879775316</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>286.7682222146708</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37470,19 +37470,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.8093140873208</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37716,7 +37716,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37862,19 +37862,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>371.2794891934863</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -37941,10 +37941,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683763</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37956,7 +37956,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.092766644681948</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>483.6546074113651</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>118.3721477934986</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873215</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38190,7 +38190,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
